--- a/PL/assignment_2/resultados/CNN.xlsx
+++ b/PL/assignment_2/resultados/CNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E4F333-F3A5-40C1-9522-C73678D31029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D084E-DCE2-48D5-87B9-2747A91CB31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44202" sheetId="1" r:id="rId1"/>
@@ -221,17 +221,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="L6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,78 +539,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1CFA7F-F7A1-4D7D-BE63-940950EA31B3}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,90 +1404,89 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1496,7 +1495,7 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>63502</v>
       </c>
       <c r="D3" s="1">
@@ -1546,7 +1545,7 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>63502</v>
       </c>
       <c r="D4" s="1">
@@ -1596,7 +1595,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>63502</v>
       </c>
       <c r="D5" s="1">
@@ -1641,6 +1640,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="G1:G2"/>
@@ -1649,12 +1654,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL/assignment_2/resultados/CNN.xlsx
+++ b/PL/assignment_2/resultados/CNN.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D084E-DCE2-48D5-87B9-2747A91CB31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F521E02-E983-4476-8BDB-F0E24AFE0A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="990" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="44202" sheetId="1" r:id="rId1"/>
-    <sheet name="63502" sheetId="2" r:id="rId2"/>
+    <sheet name="CNN" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +142,30 @@
   </si>
   <si>
     <t>CNN_63502_B1_PSize1_PStride1_NF20_FS5_NL5_LS1_E100.mat</t>
+  </si>
+  <si>
+    <t>CNN_63502_B1_PSize2_PStride1_NF20_FS10_NL3_LS1_E100.mat</t>
+  </si>
+  <si>
+    <t>0.3902</t>
+  </si>
+  <si>
+    <t>0.5260</t>
+  </si>
+  <si>
+    <t>0.0204</t>
+  </si>
+  <si>
+    <t>0.8889</t>
+  </si>
+  <si>
+    <t>Has Enconding</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>0.9688</t>
   </si>
 </sst>
 </file>
@@ -513,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="L6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +548,7 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
@@ -538,7 +561,7 @@
     <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -552,40 +575,43 @@
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -597,22 +623,23 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -625,45 +652,45 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
         <v>20</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>10</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.95</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>4.65E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>0.16669999999999999</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>0.95</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>100</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -673,48 +700,48 @@
       <c r="C4" s="1">
         <v>44202</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>20</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.85</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>0.1143</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0.33329999999999999</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>0.58620000000000005</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>100</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -724,48 +751,48 @@
       <c r="C5" s="1">
         <v>44202</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>20</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
       <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.7</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>0.51719999999999999</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0.41670000000000001</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>0.58540000000000003</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>100</v>
       </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -775,143 +802,303 @@
       <c r="C6" s="1">
         <v>44202</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>20</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>100</v>
       </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>63502</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>63502</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>63502</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>63502</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>63502</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -930,7 +1117,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -949,7 +1136,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -968,7 +1155,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -987,7 +1174,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1368,293 +1555,25 @@
       <c r="Q35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="Q1:Q2"/>
+  <mergeCells count="16">
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1CFA7F-F7A1-4D7D-BE63-940950EA31B3}">
-  <dimension ref="A1:P5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4">
-        <v>63502</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>63502</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <v>63502</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PL/assignment_2/resultados/CNN.xlsx
+++ b/PL/assignment_2/resultados/CNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F521E02-E983-4476-8BDB-F0E24AFE0A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03F659F-1268-41C4-BB02-9BACCB688854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="990" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,9 +556,10 @@
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">

--- a/PL/assignment_2/resultados/CNN.xlsx
+++ b/PL/assignment_2/resultados/CNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03F659F-1268-41C4-BB02-9BACCB688854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222D866-5E0E-45BD-B430-2B3D56A904D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="330" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>0.4167</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.1389</t>
-  </si>
-  <si>
     <t>0.5000</t>
   </si>
   <si>
@@ -147,25 +144,94 @@
     <t>CNN_63502_B1_PSize2_PStride1_NF20_FS10_NL3_LS1_E100.mat</t>
   </si>
   <si>
-    <t>0.3902</t>
-  </si>
-  <si>
-    <t>0.5260</t>
-  </si>
-  <si>
-    <t>0.0204</t>
-  </si>
-  <si>
-    <t>0.8889</t>
-  </si>
-  <si>
     <t>Has Enconding</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>0.9688</t>
+    <t>Point by Point</t>
+  </si>
+  <si>
+    <t>Post Processing</t>
+  </si>
+  <si>
+    <t>0.8500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1143</t>
+  </si>
+  <si>
+    <t>0.3333</t>
+  </si>
+  <si>
+    <t>0.5862</t>
+  </si>
+  <si>
+    <t>0.1389</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1429</t>
+  </si>
+  <si>
+    <t>0.6667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5870</t>
+  </si>
+  <si>
+    <t>0.6698</t>
+  </si>
+  <si>
+    <t>0.7115</t>
+  </si>
+  <si>
+    <t>0.1667</t>
+  </si>
+  <si>
+    <t>0.5625</t>
+  </si>
+  <si>
+    <t>0.5185</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3171</t>
+  </si>
+  <si>
+    <t>0.4304</t>
+  </si>
+  <si>
+    <t>0.2131</t>
+  </si>
+  <si>
+    <t>0.5244</t>
+  </si>
+  <si>
+    <t>0.2683</t>
+  </si>
+  <si>
+    <t>0.9886</t>
+  </si>
+  <si>
+    <t>0.5167</t>
+  </si>
+  <si>
+    <t>0.2154</t>
+  </si>
+  <si>
+    <t>CNN_2.mat</t>
+  </si>
+  <si>
+    <t>CNN_44202_B1_PSize1_PStride1_NF20_FS10_NL2_LS1_E100.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7222</t>
   </si>
 </sst>
 </file>
@@ -216,12 +282,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +332,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:M11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="A6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,138 +647,123 @@
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="3" t="s">
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44202</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="N3" s="1">
-        <v>4.65E-2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -701,9 +773,7 @@
       <c r="C4" s="1">
         <v>44202</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -726,23 +796,27 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.1143</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.58620000000000005</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="M4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -753,7 +827,7 @@
         <v>44202</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -772,30 +846,34 @@
         <v>10</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="N5" s="1">
-        <v>0.51719999999999999</v>
+        <v>0.1143</v>
       </c>
       <c r="O5" s="1">
-        <v>0.41670000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="P5" s="1">
-        <v>0.58540000000000003</v>
-      </c>
-      <c r="Q5" s="1">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -804,7 +882,7 @@
         <v>44202</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -823,43 +901,55 @@
         <v>10</v>
       </c>
       <c r="K6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="M6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
-        <v>63502</v>
+      <c r="C7" s="1">
+        <v>44202</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -880,24 +970,36 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -906,11 +1008,11 @@
         <v>63502</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -922,33 +1024,45 @@
         <v>20</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="M8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -957,11 +1071,11 @@
         <v>63502</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -976,30 +1090,42 @@
         <v>5</v>
       </c>
       <c r="K9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1008,14 +1134,14 @@
         <v>63502</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1024,32 +1150,46 @@
         <v>20</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1057,11 +1197,9 @@
         <v>63502</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -1095,30 +1233,88 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>63502</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1137,7 +1333,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1156,7 +1352,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1175,7 +1371,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1555,24 +1751,47 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E1:E2"/>
+  <mergeCells count="20">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PL/assignment_2/resultados/CNN.xlsx
+++ b/PL/assignment_2/resultados/CNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222D866-5E0E-45BD-B430-2B3D56A904D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2300A43-A104-4338-A722-B15B9BDABB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="330" windowWidth="23160" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -232,6 +232,27 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.7222</t>
+  </si>
+  <si>
+    <t>0.4756</t>
+  </si>
+  <si>
+    <t>0.4969</t>
+  </si>
+  <si>
+    <t>0.04082</t>
+  </si>
+  <si>
+    <t>0.9355</t>
+  </si>
+  <si>
+    <t>0.5714</t>
+  </si>
+  <si>
+    <t>0.5378</t>
+  </si>
+  <si>
+    <t>CNN_3.mat</t>
   </si>
 </sst>
 </file>
@@ -291,13 +312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,19 +349,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +656,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="A6:L6"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,90 +682,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="5"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
@@ -760,8 +790,8 @@
       <c r="T3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -872,65 +902,65 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="11">
         <v>44202</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
         <v>20</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="11">
         <v>10</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="11">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
         <v>0.7</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="11">
         <v>0.51719999999999999</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="11">
         <v>0.41670000000000001</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <v>0.58540000000000003</v>
       </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="Q6" s="11">
+        <v>1</v>
+      </c>
+      <c r="R6" s="11">
         <v>0</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="11">
         <v>0</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="11">
         <v>100</v>
       </c>
     </row>
@@ -998,65 +1028,65 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="10">
         <v>63502</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
         <v>20</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="8">
         <v>10</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="8">
         <v>3</v>
       </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="8">
         <v>0</v>
       </c>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1315,23 +1345,64 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>63502</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1772,11 +1843,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1792,6 +1858,11 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PL/assignment_2/resultados/CNN.xlsx
+++ b/PL/assignment_2/resultados/CNN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2300A43-A104-4338-A722-B15B9BDABB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60284298-356A-453C-953B-EC1C7EC575AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,15 +349,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,6 +362,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +656,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,90 +682,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
@@ -790,8 +790,8 @@
       <c r="T3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="7"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -902,65 +902,65 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>44202</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
         <v>20</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>10</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="8">
         <v>2</v>
       </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
         <v>0.7</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="8">
         <v>0.51719999999999999</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="8">
         <v>0.41670000000000001</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="8">
         <v>0.58540000000000003</v>
       </c>
-      <c r="Q6" s="11">
-        <v>1</v>
-      </c>
-      <c r="R6" s="11">
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
         <v>0</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="8">
         <v>0</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1028,65 +1028,65 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>63502</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
         <v>20</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <v>10</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="5">
         <v>3</v>
       </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="5">
         <v>0</v>
       </c>
-      <c r="T8" s="8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="8">
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="U8" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1843,6 +1843,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1859,10 +1863,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PL/assignment_2/resultados/CNN.xlsx
+++ b/PL/assignment_2/resultados/CNN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60284298-356A-453C-953B-EC1C7EC575AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E1337F-96B0-44C4-9099-67EA8F94B1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1843,6 +1843,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:T1"/>
@@ -1859,10 +1863,6 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
